--- a/InventorModel/YAxis/YAxisIdlerLeft BOM.xlsx
+++ b/InventorModel/YAxis/YAxisIdlerLeft BOM.xlsx
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x30.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisIdler\YIdlerBlockLeft.ipt</t>
         </r>
       </text>
     </comment>
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Nuts\Nut4.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisIdler\YIdlerCapLeft.ipt</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x15.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x30.ipt</t>
         </r>
       </text>
     </comment>
@@ -73,7 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Wahsers\M4Washer.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Nuts\Nut4.ipt</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Belt\GT2Idler.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x15.ipt</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\FHS\FHS4\FHS4x8.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Wahsers\M4Washer.ipt</t>
         </r>
       </text>
     </comment>
@@ -115,7 +115,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x8.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Belt\GT2Idler.iam</t>
         </r>
       </text>
     </comment>
@@ -129,7 +129,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisIdler\YIdlerBlockLeft.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\YAxis\YAxisBeltIdlerSpacer.ipt</t>
         </r>
       </text>
     </comment>
@@ -143,7 +143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisIdler\YIdlerCapLeft.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\FHS\FHS4\FHS4x8.ipt</t>
         </r>
       </text>
     </comment>
@@ -157,7 +157,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\YAxis\YAxisBeltIdlerSpacer.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\SHCS\SHCS4\SHCS4x8.ipt</t>
         </r>
       </text>
     </comment>
@@ -166,11 +166,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>PART PREVIEW</t>
   </si>
   <si>
+    <t>PART NUMBER</t>
+  </si>
+  <si>
     <t>QUANTITY</t>
   </si>
   <si>
@@ -183,9 +186,6 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -204,21 +204,30 @@
     <t>Hover here for image</t>
   </si>
   <si>
+    <t>YIdlerBlockLeft</t>
+  </si>
+  <si>
     <t>Y Idler Block Left</t>
   </si>
   <si>
-    <t>Jack; Zelogik</t>
-  </si>
-  <si>
     <t>Print</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>YIdlerCapLeft</t>
+  </si>
+  <si>
     <t>Y Idler Cap Left</t>
   </si>
   <si>
+    <t>SHCS4x30</t>
+  </si>
+  <si>
     <t>SHCS 4x30</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300239070/</t>
   </si>
   <si>
+    <t>M4Nut</t>
+  </si>
+  <si>
     <t>M4 Nut</t>
   </si>
   <si>
@@ -243,12 +255,18 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300250540/</t>
   </si>
   <si>
+    <t>SHCS4x15</t>
+  </si>
+  <si>
     <t>SHCS 4x15</t>
   </si>
   <si>
     <t>CB4-15</t>
   </si>
   <si>
+    <t>M4Washer</t>
+  </si>
+  <si>
     <t>M4 Washer</t>
   </si>
   <si>
@@ -258,18 +276,33 @@
     <t>http://us.misumi-ec.com/vona2/detail/110300252910/</t>
   </si>
   <si>
+    <t>GT2Idler</t>
+  </si>
+  <si>
     <t>GT2 Toothed Idler</t>
   </si>
   <si>
+    <t>YAxisBeltIdlerSpacer</t>
+  </si>
+  <si>
     <t>Y Axis Belt Idler Spacer</t>
   </si>
   <si>
+    <t>FHS4x8</t>
+  </si>
+  <si>
     <t>FHS 4x8</t>
   </si>
   <si>
     <t>HFBCM4-8</t>
   </si>
   <si>
+    <t>http://us.misumi-ec.com/vona2/detail/110300463610/</t>
+  </si>
+  <si>
+    <t>SHCS4x8</t>
+  </si>
+  <si>
     <t>SHCS 4x8</t>
   </si>
   <si>
@@ -279,7 +312,7 @@
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 2/2/2015 21:30:11</t>
+    <t>File created: 19/3/2015 8:27:15</t>
   </si>
 </sst>
 </file>
@@ -721,17 +754,17 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -778,253 +811,253 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.26</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(B2*C2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(C2*D2)</f>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.56989999999999996</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <f>SUM(B3*C3)</f>
-        <v>2.2795999999999998</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(C3*D3)</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>0.26</v>
       </c>
-      <c r="D4" s="4">
-        <f>SUM(B4*C4)</f>
+      <c r="E4" s="4">
+        <f>SUM(C4*D4)</f>
         <v>0.52</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.16</v>
-      </c>
       <c r="D5" s="4">
-        <f>SUM(B5*C5)</f>
-        <v>0.64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM(C5*D5)</f>
+        <v>2.2795999999999998</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>6.86</v>
-      </c>
       <c r="D6" s="4">
-        <f>SUM(B6*C6)</f>
-        <v>13.72</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>0.26</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(C6*D6)</f>
+        <v>0.52</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.35</v>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
       </c>
       <c r="D7" s="4">
-        <f>SUM(B7*C7)</f>
-        <v>0.7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(C7*D7)</f>
+        <v>0.64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.26</v>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <f>SUM(B8*C8)</f>
-        <v>0.26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>6.86</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(C8*D8)</f>
+        <v>13.72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <f>SUM(B9*C9)</f>
+      <c r="E9" s="4">
+        <f>SUM(C9*D9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
@@ -1034,84 +1067,91 @@
       <c r="J9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(B10*C10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>0.35</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM(C10*D10)</f>
+        <v>0.7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <f>SUM(B11*C11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>0.26</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(C11*D11)</f>
+        <v>0.26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6">
-        <f>SUM(D2:D11)</f>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6">
+        <f>SUM(E2:E11)</f>
         <v>18.639600000000002</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
+      <c r="F12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L11">
-    <sortCondition ref="G2:G11"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
